--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N2">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O2">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P2">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q2">
-        <v>3.526960525148445</v>
+        <v>0.02261058253111111</v>
       </c>
       <c r="R2">
-        <v>31.742644726336</v>
+        <v>0.20349524278</v>
       </c>
       <c r="S2">
-        <v>0.01488317270247705</v>
+        <v>3.269306404946952E-05</v>
       </c>
       <c r="T2">
-        <v>0.01488317270247705</v>
+        <v>3.269306404946952E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N3">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O3">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P3">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q3">
-        <v>8.369298973798887</v>
+        <v>10.36334018959044</v>
       </c>
       <c r="R3">
-        <v>75.32369076418999</v>
+        <v>93.270061706314</v>
       </c>
       <c r="S3">
-        <v>0.03531701620631838</v>
+        <v>0.01498454735160123</v>
       </c>
       <c r="T3">
-        <v>0.03531701620631838</v>
+        <v>0.01498454735160123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I4">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J4">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N4">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O4">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P4">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q4">
-        <v>62.1546563579129</v>
+        <v>1.402874500247778</v>
       </c>
       <c r="R4">
-        <v>559.3919072212161</v>
+        <v>12.62587050223</v>
       </c>
       <c r="S4">
-        <v>0.2622820636187859</v>
+        <v>0.002028442470549401</v>
       </c>
       <c r="T4">
-        <v>0.2622820636187859</v>
+        <v>0.002028442470549401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N5">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O5">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P5">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q5">
-        <v>147.4898564823628</v>
+        <v>642.9938578258722</v>
       </c>
       <c r="R5">
-        <v>1327.408708341265</v>
+        <v>5786.94472043285</v>
       </c>
       <c r="S5">
-        <v>0.6223820738107553</v>
+        <v>0.9297168415892078</v>
       </c>
       <c r="T5">
-        <v>0.6223820738107553</v>
+        <v>0.9297168415892076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H6">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I6">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J6">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N6">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O6">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P6">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q6">
-        <v>4.576296519541333</v>
+        <v>0.08015656011222222</v>
       </c>
       <c r="R6">
-        <v>41.186668675872</v>
+        <v>0.72140904101</v>
       </c>
       <c r="S6">
-        <v>0.01931119187539295</v>
+        <v>0.0001158998690161238</v>
       </c>
       <c r="T6">
-        <v>0.01931119187539295</v>
+        <v>0.0001158998690161238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H7">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I7">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J7">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N7">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O7">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P7">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q7">
-        <v>10.85932022536167</v>
+        <v>36.73897829599589</v>
       </c>
       <c r="R7">
-        <v>97.73388202825498</v>
+        <v>330.650804663963</v>
       </c>
       <c r="S7">
-        <v>0.04582448178627042</v>
+        <v>0.05312157565557601</v>
       </c>
       <c r="T7">
-        <v>0.04582448178627042</v>
+        <v>0.053121575655576</v>
       </c>
     </row>
   </sheetData>
